--- a/Taiwan Steel/1 MONTH/20228/comparison.xlsx
+++ b/Taiwan Steel/1 MONTH/20228/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>model</t>
   </si>
@@ -25,19 +25,28 @@
     <t>acc_for_gbm</t>
   </si>
   <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
     <t>SARIMA</t>
   </si>
   <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
-    <t>WMA</t>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Holt Winter</t>
+  </si>
+  <si>
+    <t>Prophet</t>
   </si>
   <si>
     <t>lstm</t>
+  </si>
+  <si>
+    <t>GRU</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1.68</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2.92</v>
+        <v>3.28</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -462,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.82</v>
+        <v>3.44</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -476,9 +485,51 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>21.58</v>
+        <v>4.36</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8.34</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>12.35</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
